--- a/data/trans_orig/ip32_anio-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ip32_anio-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC9B622-E429-4403-B148-676352356CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C12E78BA-7D1E-4CC6-91F8-F3202D824CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B37AB05-BA76-4316-A9AA-A2C7F4A5DB69}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CDF4798E-CEF2-4E8D-BEC7-A4ADD4C9F14A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="320">
   <si>
     <t>Menores según el año que llegó a Andalucía en 2012 (Tasa respuesta: 1,43%)</t>
   </si>
@@ -93,25 +93,25 @@
     <t>12,21%</t>
   </si>
   <si>
-    <t>51,71%</t>
+    <t>57,15%</t>
   </si>
   <si>
     <t>22,11%</t>
   </si>
   <si>
-    <t>63,43%</t>
+    <t>81,9%</t>
   </si>
   <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>58,63%</t>
+    <t>53,19%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>79,19%</t>
+    <t>77,64%</t>
   </si>
   <si>
     <t>27,0%</t>
@@ -120,7 +120,7 @@
     <t>22,31%</t>
   </si>
   <si>
-    <t>61,14%</t>
+    <t>60,93%</t>
   </si>
   <si>
     <t>42,81%</t>
@@ -129,40 +129,40 @@
     <t>17,32%</t>
   </si>
   <si>
-    <t>60,17%</t>
+    <t>60,37%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>70,05%</t>
+    <t>80,35%</t>
   </si>
   <si>
     <t>11,64%</t>
   </si>
   <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>49,66%</t>
+    <t>48,39%</t>
   </si>
   <si>
     <t>20,1%</t>
   </si>
   <si>
-    <t>80,48%</t>
+    <t>78,48%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>49,93%</t>
+    <t>50,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -183,133 +183,136 @@
     <t>9,26%</t>
   </si>
   <si>
-    <t>48,62%</t>
+    <t>48,72%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>46,25%</t>
+    <t>36,99%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>22,1%</t>
+    <t>25,44%</t>
   </si>
   <si>
     <t>11,7%</t>
   </si>
   <si>
-    <t>45,52%</t>
+    <t>45,3%</t>
   </si>
   <si>
     <t>7,15%</t>
   </si>
   <si>
-    <t>34,78%</t>
+    <t>33,81%</t>
   </si>
   <si>
     <t>32,7%</t>
   </si>
   <si>
-    <t>63,14%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
   </si>
   <si>
     <t>27,07%</t>
   </si>
   <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>9,62%</t>
   </si>
   <si>
-    <t>40,08%</t>
+    <t>40,93%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>29,65%</t>
+    <t>29,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -324,7 +327,7 @@
     <t>18,93%</t>
   </si>
   <si>
-    <t>77,7%</t>
+    <t>77,55%</t>
   </si>
   <si>
     <t>55,35%</t>
@@ -333,7 +336,7 @@
     <t>23,47%</t>
   </si>
   <si>
-    <t>83,22%</t>
+    <t>85,86%</t>
   </si>
   <si>
     <t>38,06%</t>
@@ -342,7 +345,7 @@
     <t>21,92%</t>
   </si>
   <si>
-    <t>82,24%</t>
+    <t>80,14%</t>
   </si>
   <si>
     <t>24,2%</t>
@@ -351,7 +354,7 @@
     <t>13,94%</t>
   </si>
   <si>
-    <t>70,49%</t>
+    <t>74,65%</t>
   </si>
   <si>
     <t>37,74%</t>
@@ -360,7 +363,7 @@
     <t>21,74%</t>
   </si>
   <si>
-    <t>86,18%</t>
+    <t>80,31%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -372,634 +375,628 @@
     <t>12,69%</t>
   </si>
   <si>
-    <t>37,15%</t>
+    <t>38,43%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>23,57%</t>
+    <t>20,65%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>31,68%</t>
+    <t>25,98%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>16,85%</t>
+    <t>16,74%</t>
   </si>
   <si>
     <t>7,83%</t>
   </si>
   <si>
-    <t>38,53%</t>
+    <t>33,1%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>23,92%</t>
+    <t>24,33%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>21,48%</t>
+    <t>22,22%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el año que llegó a Andalucía en 2016 (Tasa respuesta: 1,22%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
     <t>39,58%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el año que llegó a Andalucía en 2015 (Tasa respuesta: 1,22%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>35,13%</t>
+    <t>35,93%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>22,71%</t>
+    <t>23,61%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>20,38%</t>
+    <t>19,55%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>31,0%</t>
+    <t>30,39%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>19,94%</t>
+    <t>19,84%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>36,69%</t>
+    <t>35,73%</t>
   </si>
   <si>
     <t>6,4%</t>
   </si>
   <si>
-    <t>21,32%</t>
+    <t>18,92%</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAE6CDB-D5A4-4DC1-B4CD-23066FBC3927}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AB6E1F-47E5-4AF5-9D27-E498306CA777}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3187,10 +3184,10 @@
         <v>79</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -3199,13 +3196,13 @@
         <v>2295</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3217,13 @@
         <v>1210</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3256,7 +3253,7 @@
         <v>10</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3283,13 @@
         <v>675</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -3301,13 +3298,13 @@
         <v>675</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,7 +3360,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B40" s="5">
         <v>2015</v>
@@ -3396,7 +3393,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3447,7 +3444,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3498,7 +3495,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -3549,7 +3546,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3600,7 +3597,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -3651,7 +3648,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -3696,7 +3693,7 @@
         <v>582</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>10</v>
@@ -3711,13 +3708,13 @@
         <v>582</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,7 +3750,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -3804,7 +3801,7 @@
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -3849,7 +3846,7 @@
         <v>722</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>10</v>
@@ -3864,13 +3861,13 @@
         <v>721</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,7 +3882,7 @@
         <v>674</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>10</v>
@@ -3906,7 +3903,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -3915,13 +3912,13 @@
         <v>674</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,7 +3954,7 @@
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -4008,7 +4005,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -4059,7 +4056,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -4110,7 +4107,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -4140,7 +4137,7 @@
         <v>429</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>10</v>
@@ -4161,7 +4158,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -4170,13 +4167,13 @@
         <v>429</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,7 +4188,7 @@
         <v>668</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>10</v>
@@ -4212,7 +4209,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M56" s="7">
         <v>1</v>
@@ -4221,13 +4218,13 @@
         <v>668</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,7 +4298,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4316,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -4331,7 +4328,7 @@
         <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,7 +4349,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4367,7 +4364,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -4382,7 +4379,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,7 +4400,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4418,7 +4415,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4433,7 +4430,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,7 +4451,7 @@
         <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4469,7 +4466,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -4484,7 +4481,7 @@
         <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,7 +4502,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H62" s="7">
         <v>2</v>
@@ -4514,13 +4511,13 @@
         <v>1351</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M62" s="7">
         <v>2</v>
@@ -4529,13 +4526,13 @@
         <v>1351</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,7 +4553,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
@@ -4565,13 +4562,13 @@
         <v>670</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M63" s="7">
         <v>1</v>
@@ -4580,13 +4577,13 @@
         <v>670</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4598,13 @@
         <v>756</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -4616,13 +4613,13 @@
         <v>582</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M64" s="7">
         <v>2</v>
@@ -4631,13 +4628,13 @@
         <v>1338</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4649,13 @@
         <v>1273</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4673,7 +4670,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M65" s="7">
         <v>2</v>
@@ -4682,13 +4679,13 @@
         <v>1273</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4700,13 @@
         <v>654</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H66" s="7">
         <v>2</v>
@@ -4718,13 +4715,13 @@
         <v>1283</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M66" s="7">
         <v>3</v>
@@ -4733,13 +4730,13 @@
         <v>1937</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4751,13 @@
         <v>1987</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -4769,13 +4766,13 @@
         <v>722</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M67" s="7">
         <v>4</v>
@@ -4784,13 +4781,13 @@
         <v>2708</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4802,13 @@
         <v>674</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H68" s="7">
         <v>2</v>
@@ -4820,13 +4817,13 @@
         <v>1650</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M68" s="7">
         <v>3</v>
@@ -4835,10 +4832,10 @@
         <v>2324</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q68" s="7" t="s">
         <v>149</v>
@@ -4862,7 +4859,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
@@ -4928,7 +4925,7 @@
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -4958,7 +4955,7 @@
         <v>654</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>10</v>
@@ -5015,7 +5012,7 @@
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H72" s="7">
         <v>3</v>
@@ -5063,10 +5060,10 @@
         <v>169</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5081,7 +5078,7 @@
         <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M73" s="7">
         <v>3</v>
@@ -5090,13 +5087,13 @@
         <v>1639</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5108,13 @@
         <v>1355</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -5126,13 +5123,13 @@
         <v>675</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M74" s="7">
         <v>3</v>
@@ -5141,13 +5138,13 @@
         <v>2031</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,7 +5200,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5222,7 +5219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4F8034-E161-4BE7-A254-F779ACEF804F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9FC3F4-00AD-4600-8837-E5FB5F27E63C}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5239,7 +5236,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5352,35 +5349,35 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,35 +5398,35 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,35 +5447,35 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,35 +5496,35 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,7 +5542,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>42</v>
@@ -5555,13 +5552,13 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -5573,7 +5570,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>42</v>
@@ -5597,35 +5594,35 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,35 +5643,35 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,35 +5692,35 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,35 +5741,35 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,35 +5790,35 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,35 +5839,35 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,35 +5888,35 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,35 +5937,35 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,35 +5986,35 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,35 +6035,35 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6087,35 +6084,35 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,35 +6133,35 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,13 +6189,13 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -6266,7 +6263,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6278,13 @@
         <v>1403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6311,13 +6308,13 @@
         <v>1403</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6329,13 @@
         <v>1291</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6362,13 +6359,13 @@
         <v>1291</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6380,13 @@
         <v>1288</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6398,13 +6395,13 @@
         <v>1612</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -6413,13 +6410,13 @@
         <v>2900</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,13 +6446,13 @@
         <v>765</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -6464,13 +6461,13 @@
         <v>765</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,7 +6518,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,7 +6569,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6584,13 @@
         <v>671</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -6602,13 +6599,13 @@
         <v>799</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -6617,13 +6614,13 @@
         <v>1470</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,13 +6650,13 @@
         <v>1464</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -6668,13 +6665,13 @@
         <v>1464</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6686,13 @@
         <v>608</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6719,13 +6716,13 @@
         <v>608</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,7 +6773,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6806,13 +6803,13 @@
         <v>700</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -6821,13 +6818,13 @@
         <v>700</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,13 +6854,13 @@
         <v>617</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6872,13 +6869,13 @@
         <v>617</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,7 +6926,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,7 +6977,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,7 +7028,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7082,7 +7079,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7138,7 +7135,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B40" s="5">
         <v>2015</v>
@@ -7156,7 +7153,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -7165,13 +7162,13 @@
         <v>824</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -7180,13 +7177,13 @@
         <v>824</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7207,7 +7204,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -7216,13 +7213,13 @@
         <v>597</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -7231,13 +7228,13 @@
         <v>597</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7258,7 +7255,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -7288,7 +7285,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7309,7 +7306,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -7339,7 +7336,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,7 +7351,7 @@
         <v>626</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
@@ -7384,13 +7381,13 @@
         <v>626</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,7 +7408,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -7441,7 +7438,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,7 +7459,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -7471,13 +7468,13 @@
         <v>640</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -7492,7 +7489,7 @@
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,7 +7510,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -7522,13 +7519,13 @@
         <v>1058</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -7537,13 +7534,13 @@
         <v>1058</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,7 +7555,7 @@
         <v>1087</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>10</v>
@@ -7588,13 +7585,13 @@
         <v>1087</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,7 +7612,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -7624,13 +7621,13 @@
         <v>540</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -7639,13 +7636,13 @@
         <v>540</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,7 +7663,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -7696,7 +7693,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,7 +7714,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -7747,7 +7744,7 @@
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,7 +7765,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -7777,13 +7774,13 @@
         <v>524</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -7792,13 +7789,13 @@
         <v>524</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7819,7 +7816,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -7849,7 +7846,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7870,7 +7867,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -7900,7 +7897,7 @@
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,7 +7918,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -7951,7 +7948,7 @@
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,7 +7969,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -8002,7 +7999,7 @@
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8076,7 +8073,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
@@ -8085,13 +8082,13 @@
         <v>824</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M58" s="7">
         <v>1</v>
@@ -8100,13 +8097,13 @@
         <v>824</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,13 +8118,13 @@
         <v>1403</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>263</v>
+        <v>18</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
@@ -8193,7 +8190,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M60" s="7">
         <v>2</v>
@@ -8331,7 +8328,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -8346,7 +8343,7 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -8382,7 +8379,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -8508,13 +8505,13 @@
         <v>2551</v>
       </c>
       <c r="O66" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P66" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P66" s="7" t="s">
+      <c r="Q66" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -8529,13 +8526,13 @@
         <v>608</v>
       </c>
       <c r="E67" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -8544,13 +8541,13 @@
         <v>540</v>
       </c>
       <c r="J67" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M67" s="7">
         <v>2</v>
@@ -8559,13 +8556,13 @@
         <v>1148</v>
       </c>
       <c r="O67" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q67" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -8586,7 +8583,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -8601,7 +8598,7 @@
         <v>11</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -8637,7 +8634,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
@@ -8646,13 +8643,13 @@
         <v>700</v>
       </c>
       <c r="J69" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M69" s="7">
         <v>1</v>
@@ -8661,13 +8658,13 @@
         <v>700</v>
       </c>
       <c r="O69" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q69" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q69" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -8688,7 +8685,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -8697,13 +8694,13 @@
         <v>1141</v>
       </c>
       <c r="J70" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M70" s="7">
         <v>2</v>
@@ -8712,13 +8709,13 @@
         <v>1141</v>
       </c>
       <c r="O70" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q70" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -8739,7 +8736,7 @@
         <v>11</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -8754,7 +8751,7 @@
         <v>11</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -8790,7 +8787,7 @@
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -8805,7 +8802,7 @@
         <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -8841,7 +8838,7 @@
         <v>11</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -8856,7 +8853,7 @@
         <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
@@ -8892,7 +8889,7 @@
         <v>11</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -8907,7 +8904,7 @@
         <v>11</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M74" s="7">
         <v>0</v>
@@ -8978,7 +8975,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
